--- a/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-2,22</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 9,26</t>
+          <t>-15,5; 16,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 11,07</t>
+          <t>-17,96; 7,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,84</t>
+          <t>-12,78; 7,86</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>-3,89%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 23,82</t>
+          <t>-27,94; 43,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 31,99</t>
+          <t>-25,58; 12,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 20,63</t>
+          <t>-20,76; 15,21</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 11,15</t>
+          <t>-13,19; 4,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,7</t>
+          <t>-16,7; -1,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,23</t>
+          <t>-13,1; -0,86</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>-12,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>-10,4%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 35,72</t>
+          <t>-18,9; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 51,85</t>
+          <t>-23,07; -1,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 36,36</t>
+          <t>-18,54; -1,35</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>-14,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>-13,01</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 20,55</t>
+          <t>-23,03; -4,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 16,95</t>
+          <t>-19,11; -3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 16,82</t>
+          <t>-19,38; -6,69</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>-21,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>-18,72%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,89; 66,73</t>
+          <t>-33,18; -7,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 61,68</t>
+          <t>-25,36; -5,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,46; 55,5</t>
+          <t>-26,55; -9,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>-6,97</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 10,67</t>
+          <t>-14,7; -1,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 12,0</t>
+          <t>-11,2; -0,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,07</t>
+          <t>-11,34; -2,69</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>-12,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>-9,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>-10,89%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 31,47</t>
+          <t>-22,63; -2,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 39,02</t>
+          <t>-16,92; -0,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,15; 30,49</t>
+          <t>-17,49; -4,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,52</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; -3,02</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; -3,09</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; -4,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-11,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; -5,04</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; -4,66</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; -6,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.33904042800464</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.16098995288216</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.648225563828877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 16,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,96; 7,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,78; 7,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.95366875261013</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.15318534683304</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.86882782482698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,25%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.21918894964664</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.980563657464224</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.874733767396626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-27,94; 43,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,58; 12,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 15,21</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.04846772170838137</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1358804387121815</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.06243965132275989</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2325836124303633</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2813194804790995</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2044604158181066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,19; 4,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,7; -1,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; -0,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4991914458181518</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.06101613302600033</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1314897268631995</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,86%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-10,4%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.997131431766687</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.596962715128088</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.907167186117191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,9; 7,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-23,07; -1,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; -1,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.8862226737366</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.43894392503277</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.79648744722373</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-14,21</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.996149552483582</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.322326946465612</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.6697925346645887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-23,03; -4,46</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; -3,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,38; -6,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.06062467356770249</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1381861400862448</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1019268619847394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-21,25%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-16,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-18,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1819390926914917</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2385798571006642</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1797226941925054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; -7,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,36; -5,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-26,55; -9,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.0997619074414039</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.0359942790358402</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.01020527842421326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-7,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,99</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,97</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-14.19159381582208</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-12.01234801085959</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-13.24386168873137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; -1,7</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; -0,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; -2,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-24.24989830740265</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-19.5009523611765</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.62582596949618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-12,45%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-9,26%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-10,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-4.754341250575264</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-3.547479573887</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-6.718464665363563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-22,63; -2,89</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-16,92; -0,78</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-17,49; -4,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.212239012141922</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1673717819934604</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1905398773235115</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,52</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-7,11</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-7,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3411021646432776</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2627419401410057</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2702824575745132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; -3,02</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; -3,09</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,96; -4,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.07670827210547224</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.05509116962224769</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.1011268874780518</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-11,89%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-10,69%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-11,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.551132874529253</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-10.39535043207172</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-8.61493480164156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; -5,04</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; -4,66</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; -6,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.97025074741715</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-15.23096258332157</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.66884075024525</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.2106575979003491</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-5.205729414432709</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-4.8997393746931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1035331567911105</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1486484322254904</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1289727544621765</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.194800989953536</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2117712294994271</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.185681734701904</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.004834417168054175</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.07675574812828719</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.07521392589016437</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
